--- a/data/worldometer global/20-05-11 Global wom raw data.xlsx
+++ b/data/worldometer global/20-05-11 Global wom raw data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/71ffaa969b2b2dbb/Meridian/h Computer Science/Teacher Projects/COVID/data/worldometer global/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{CB72C11E-DFD4-43A0-8AD4-A4CDE002CDE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{521E2984-8A22-435E-819F-EC996CEFBF50}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{CB72C11E-DFD4-43A0-8AD4-A4CDE002CDE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{22B189C8-E581-408E-917C-B84DA785D356}"/>
   <bookViews>
-    <workbookView xWindow="8190" yWindow="-19020" windowWidth="25875" windowHeight="16485" activeTab="1" xr2:uid="{8E47FD39-2E4A-43A8-AC2E-E8221A8D475B}"/>
+    <workbookView xWindow="8190" yWindow="-19020" windowWidth="25875" windowHeight="16485" xr2:uid="{8E47FD39-2E4A-43A8-AC2E-E8221A8D475B}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
@@ -1355,7 +1355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F18C471-AD1F-4B8D-873E-6BF836B63BEB}">
   <dimension ref="A1:L216"/>
   <sheetViews>
-    <sheetView topLeftCell="A200" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:L216"/>
     </sheetView>
   </sheetViews>
@@ -8413,218 +8413,218 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{829318AE-3AC2-4D8D-8022-210145C2C405}"/>
-    <hyperlink ref="A4" r:id="rId2" display="https://www.worldometers.info/coronavirus/country/spain/" xr:uid="{DE14C721-68B6-4E3A-B58E-29E9F1EEFEDA}"/>
-    <hyperlink ref="A5" r:id="rId3" display="https://www.worldometers.info/coronavirus/country/russia/" xr:uid="{126B866C-7258-41D9-A0EE-775FB8E6298C}"/>
-    <hyperlink ref="A6" r:id="rId4" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{A37462C3-DF3E-4642-9B30-746EF334FCCF}"/>
-    <hyperlink ref="A7" r:id="rId5" display="https://www.worldometers.info/coronavirus/country/italy/" xr:uid="{5C33A34A-EB6B-4DF8-96EB-07F92DEA87F1}"/>
-    <hyperlink ref="A8" r:id="rId6" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{1EE0FF71-7455-44AF-A587-AB480E823C61}"/>
-    <hyperlink ref="A9" r:id="rId7" display="https://www.worldometers.info/coronavirus/country/germany/" xr:uid="{A5E0E082-D8A8-4DED-BE69-3BF9DF7B28F5}"/>
-    <hyperlink ref="A10" r:id="rId8" display="https://www.worldometers.info/coronavirus/country/brazil/" xr:uid="{5107D39D-1307-481B-BAE1-FBDBC9D50676}"/>
-    <hyperlink ref="A11" r:id="rId9" display="https://www.worldometers.info/coronavirus/country/turkey/" xr:uid="{525EED6D-C2E0-4D03-9EE7-63035BF1F43F}"/>
-    <hyperlink ref="A12" r:id="rId10" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{DD6DCF2F-3555-4A21-85D4-D4DC0C80A4D7}"/>
-    <hyperlink ref="A13" r:id="rId11" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{70BA54BE-40A7-4B00-8C4E-E097574FA46D}"/>
-    <hyperlink ref="A14" r:id="rId12" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{E92B5090-9913-47BE-8ECC-22E83F44F2C4}"/>
-    <hyperlink ref="A15" r:id="rId13" display="https://www.worldometers.info/coronavirus/country/india/" xr:uid="{9457C3A3-F96A-471B-A553-D9F4C5C5E48B}"/>
-    <hyperlink ref="A16" r:id="rId14" display="https://www.worldometers.info/coronavirus/country/peru/" xr:uid="{24E6540F-757A-4FC5-A8E0-221836A662B1}"/>
-    <hyperlink ref="A17" r:id="rId15" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{C5AFB7CC-A831-4068-BAD1-D121481191AF}"/>
-    <hyperlink ref="A18" r:id="rId16" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{91502D1C-4144-486B-91D5-417DFC82CA07}"/>
-    <hyperlink ref="A19" r:id="rId17" display="https://www.worldometers.info/coronavirus/country/saudi-arabia/" xr:uid="{D6A6E7AE-3C98-459D-B405-A37595228211}"/>
-    <hyperlink ref="A20" r:id="rId18" display="https://www.worldometers.info/coronavirus/country/mexico/" xr:uid="{56C3E58F-FCB9-4513-A089-3233DA5017C9}"/>
-    <hyperlink ref="A21" r:id="rId19" display="https://www.worldometers.info/coronavirus/country/pakistan/" xr:uid="{9905E909-35EA-4366-8D7A-B0E93550A39C}"/>
-    <hyperlink ref="A22" r:id="rId20" display="https://www.worldometers.info/coronavirus/country/switzerland/" xr:uid="{E9793E46-362D-4A74-A1FB-6D5D3EA43B9F}"/>
-    <hyperlink ref="A23" r:id="rId21" display="https://www.worldometers.info/coronavirus/country/ecuador/" xr:uid="{D16A6DF5-1CAB-4836-A0E5-38A309B501D0}"/>
-    <hyperlink ref="A24" r:id="rId22" display="https://www.worldometers.info/coronavirus/country/chile/" xr:uid="{C331DC6E-5EDA-4932-B9F7-5152EDB32EE1}"/>
-    <hyperlink ref="A25" r:id="rId23" display="https://www.worldometers.info/coronavirus/country/portugal/" xr:uid="{22B85079-2F24-448D-A8EC-D7ABF09C9600}"/>
-    <hyperlink ref="A26" r:id="rId24" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{7C12E768-891C-4F94-BA7C-5DBEB9E3D6D7}"/>
-    <hyperlink ref="A27" r:id="rId25" display="https://www.worldometers.info/coronavirus/country/belarus/" xr:uid="{C5396CAB-8F1D-49D6-B04A-A9E58F05BCEF}"/>
-    <hyperlink ref="A28" r:id="rId26" display="https://www.worldometers.info/coronavirus/country/singapore/" xr:uid="{CE5875CF-BEBD-40A3-88A6-BBC002082E54}"/>
-    <hyperlink ref="A29" r:id="rId27" display="https://www.worldometers.info/coronavirus/country/ireland/" xr:uid="{C03B3462-CBE8-49EC-B969-FF92EE421421}"/>
-    <hyperlink ref="A30" r:id="rId28" display="https://www.worldometers.info/coronavirus/country/qatar/" xr:uid="{3706DA80-202D-4300-8636-28586B22F039}"/>
-    <hyperlink ref="A31" r:id="rId29" display="https://www.worldometers.info/coronavirus/country/united-arab-emirates/" xr:uid="{FF52320A-171C-486E-94B9-A0606B6EF47F}"/>
-    <hyperlink ref="A32" r:id="rId30" display="https://www.worldometers.info/coronavirus/country/israel/" xr:uid="{5896EA48-283E-4A9B-A099-98DBFA5D7DB2}"/>
-    <hyperlink ref="A33" r:id="rId31" display="https://www.worldometers.info/coronavirus/country/poland/" xr:uid="{FC4B2E71-07A6-4B75-91F7-A23D68BFDAB4}"/>
-    <hyperlink ref="A34" r:id="rId32" display="https://www.worldometers.info/coronavirus/country/austria/" xr:uid="{43EE1039-5FCE-4A09-92E1-A864C251ABE5}"/>
-    <hyperlink ref="A35" r:id="rId33" display="https://www.worldometers.info/coronavirus/country/japan/" xr:uid="{3B7E29B4-CF92-44DF-9D4E-AD28911348AC}"/>
-    <hyperlink ref="A36" r:id="rId34" display="https://www.worldometers.info/coronavirus/country/bangladesh/" xr:uid="{268255C3-56FC-4CEF-AE65-609A861232B8}"/>
-    <hyperlink ref="A37" r:id="rId35" display="https://www.worldometers.info/coronavirus/country/ukraine/" xr:uid="{DBD400B3-316F-4DC5-9512-496FE6DA2259}"/>
-    <hyperlink ref="A38" r:id="rId36" display="https://www.worldometers.info/coronavirus/country/romania/" xr:uid="{95465A5E-8CE1-40AF-867E-2DFDD5173476}"/>
-    <hyperlink ref="A39" r:id="rId37" display="https://www.worldometers.info/coronavirus/country/indonesia/" xr:uid="{A2316774-C157-4146-9A2B-C5FB1BB2AD93}"/>
-    <hyperlink ref="A40" r:id="rId38" display="https://www.worldometers.info/coronavirus/country/philippines/" xr:uid="{B25FCC0F-4087-4A6B-A797-5F3F815D0426}"/>
-    <hyperlink ref="A41" r:id="rId39" display="https://www.worldometers.info/coronavirus/country/colombia/" xr:uid="{56F1D92A-30F0-41FB-B58B-67F8F805A771}"/>
-    <hyperlink ref="A42" r:id="rId40" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{64543BB9-DB10-42A4-89EB-824B381C4A79}"/>
-    <hyperlink ref="A43" r:id="rId41" display="https://www.worldometers.info/coronavirus/country/denmark/" xr:uid="{A6E05749-A04D-498B-90FA-9F5D90F9D841}"/>
-    <hyperlink ref="A44" r:id="rId42" display="https://www.worldometers.info/coronavirus/country/dominican-republic/" xr:uid="{608FBF9A-0553-4E18-B818-DE636D62A4C6}"/>
-    <hyperlink ref="A45" r:id="rId43" display="https://www.worldometers.info/coronavirus/country/serbia/" xr:uid="{F565D3A6-D36A-4BA6-8187-C2B350EF4FF7}"/>
-    <hyperlink ref="A46" r:id="rId44" display="https://www.worldometers.info/coronavirus/country/south-africa/" xr:uid="{6E24997C-D2A6-4908-9DD0-2647BBA59C19}"/>
-    <hyperlink ref="A47" r:id="rId45" display="https://www.worldometers.info/coronavirus/country/egypt/" xr:uid="{24D15AD3-C177-4731-B16B-E080441EABCA}"/>
-    <hyperlink ref="A48" r:id="rId46" display="https://www.worldometers.info/coronavirus/country/kuwait/" xr:uid="{234F2AB8-C90A-4A4C-BE49-ABC0FCB860C1}"/>
-    <hyperlink ref="A49" r:id="rId47" display="https://www.worldometers.info/coronavirus/country/panama/" xr:uid="{AE8D2482-108D-4A71-9E1A-266C0F84A1AD}"/>
-    <hyperlink ref="A50" r:id="rId48" display="https://www.worldometers.info/coronavirus/country/czech-republic/" xr:uid="{F5496395-22CE-4E4E-B36B-43C8976165BE}"/>
-    <hyperlink ref="A51" r:id="rId49" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{90D32F2C-14E4-49AD-9088-073886482029}"/>
-    <hyperlink ref="A52" r:id="rId50" display="https://www.worldometers.info/coronavirus/country/australia/" xr:uid="{E542A3E1-0056-417E-B4CF-70E3A334DD6C}"/>
-    <hyperlink ref="A53" r:id="rId51" display="https://www.worldometers.info/coronavirus/country/malaysia/" xr:uid="{C5A69B39-CD63-4530-8113-C85689AAF623}"/>
-    <hyperlink ref="A54" r:id="rId52" display="https://www.worldometers.info/coronavirus/country/morocco/" xr:uid="{7DAFF97E-1988-4231-9828-59381AF10585}"/>
-    <hyperlink ref="A55" r:id="rId53" display="https://www.worldometers.info/coronavirus/country/argentina/" xr:uid="{627CCFDB-80C1-4B54-8A44-3CF4380A4F5A}"/>
-    <hyperlink ref="A56" r:id="rId54" display="https://www.worldometers.info/coronavirus/country/finland/" xr:uid="{EE83CDD6-40D0-4125-B1BE-FFF792B516ED}"/>
-    <hyperlink ref="A57" r:id="rId55" display="https://www.worldometers.info/coronavirus/country/algeria/" xr:uid="{91F07E51-A605-44A8-AD97-D11416C71D71}"/>
-    <hyperlink ref="A58" r:id="rId56" display="https://www.worldometers.info/coronavirus/country/kazakhstan/" xr:uid="{14DD9120-EC94-47F8-8CA3-9544AE007A7C}"/>
-    <hyperlink ref="A59" r:id="rId57" display="https://www.worldometers.info/coronavirus/country/bahrain/" xr:uid="{E1B7FE6C-D07A-415D-A62D-B25CB90F83B4}"/>
-    <hyperlink ref="A60" r:id="rId58" display="https://www.worldometers.info/coronavirus/country/moldova/" xr:uid="{18523B85-50E5-462C-84EE-F1E8375EB85A}"/>
-    <hyperlink ref="A61" r:id="rId59" display="https://www.worldometers.info/coronavirus/country/ghana/" xr:uid="{9CEF4C35-8274-479E-AFE2-A30628B4C26A}"/>
-    <hyperlink ref="A62" r:id="rId60" display="https://www.worldometers.info/coronavirus/country/afghanistan/" xr:uid="{D88C8A72-1600-4B4A-9A2D-213D71A25392}"/>
-    <hyperlink ref="A63" r:id="rId61" display="https://www.worldometers.info/coronavirus/country/nigeria/" xr:uid="{FA572D82-EB6F-41FD-864B-A6AF67418FAD}"/>
-    <hyperlink ref="A64" r:id="rId62" display="https://www.worldometers.info/coronavirus/country/luxembourg/" xr:uid="{DAFAD541-09B2-4E00-B689-C8E5A7D476B4}"/>
-    <hyperlink ref="A65" r:id="rId63" display="https://www.worldometers.info/coronavirus/country/oman/" xr:uid="{41C421D3-D614-45B9-B689-4F2728E13C80}"/>
-    <hyperlink ref="A66" r:id="rId64" display="https://www.worldometers.info/coronavirus/country/armenia/" xr:uid="{F25B6402-2874-40AF-9E72-ABDFB24BAFE8}"/>
-    <hyperlink ref="A67" r:id="rId65" display="https://www.worldometers.info/coronavirus/country/hungary/" xr:uid="{47B17879-DAFD-46C2-B4E3-3FE241A69657}"/>
-    <hyperlink ref="A68" r:id="rId66" display="https://www.worldometers.info/coronavirus/country/thailand/" xr:uid="{C2536407-653C-4D1B-B90A-935FF61F2576}"/>
-    <hyperlink ref="A69" r:id="rId67" display="https://www.worldometers.info/coronavirus/country/iraq/" xr:uid="{54CF3D39-CB8F-434A-A0DE-F1EB7EFC981F}"/>
-    <hyperlink ref="A70" r:id="rId68" display="https://www.worldometers.info/coronavirus/country/greece/" xr:uid="{649AAC19-6C42-4FAB-9D13-4A3412BFF972}"/>
-    <hyperlink ref="A71" r:id="rId69" display="https://www.worldometers.info/coronavirus/country/cameroon/" xr:uid="{69F52941-1A5A-4E6A-8CB5-8B94261DDFF5}"/>
-    <hyperlink ref="A72" r:id="rId70" display="https://www.worldometers.info/coronavirus/country/bolivia/" xr:uid="{8A0C580F-1BD2-4D57-877D-131394BF13DB}"/>
-    <hyperlink ref="A73" r:id="rId71" display="https://www.worldometers.info/coronavirus/country/azerbaijan/" xr:uid="{938F6494-D464-4CF1-AFEE-F65EFD57390C}"/>
-    <hyperlink ref="A74" r:id="rId72" display="https://www.worldometers.info/coronavirus/country/uzbekistan/" xr:uid="{0BDB1BEF-61B4-4BF9-9622-E6D56EDDFE82}"/>
-    <hyperlink ref="A75" r:id="rId73" display="https://www.worldometers.info/coronavirus/country/croatia/" xr:uid="{D4568223-A99C-4A44-B408-78F7FE0F5DCC}"/>
-    <hyperlink ref="A76" r:id="rId74" display="https://www.worldometers.info/coronavirus/country/guinea/" xr:uid="{D898CE27-ACD9-4DE9-8F7F-A8C2691933E7}"/>
-    <hyperlink ref="A77" r:id="rId75" display="https://www.worldometers.info/coronavirus/country/bosnia-and-herzegovina/" xr:uid="{33A2987C-25C0-4B8C-BEE1-1863B71B4C88}"/>
-    <hyperlink ref="A78" r:id="rId76" display="https://www.worldometers.info/coronavirus/country/bulgaria/" xr:uid="{B48937A8-5245-4AA5-9BA0-94CBCB6C0280}"/>
-    <hyperlink ref="A79" r:id="rId77" display="https://www.worldometers.info/coronavirus/country/honduras/" xr:uid="{14AA02E5-C787-4298-86C0-2A82C3457EF6}"/>
-    <hyperlink ref="A80" r:id="rId78" display="https://www.worldometers.info/coronavirus/country/iceland/" xr:uid="{4F4DDD52-DB70-4F76-A917-782354F5CEA0}"/>
-    <hyperlink ref="A81" r:id="rId79" display="https://www.worldometers.info/coronavirus/country/cuba/" xr:uid="{0B6CFAE8-4CD3-4C58-9F15-3337EF52F9CD}"/>
-    <hyperlink ref="A82" r:id="rId80" display="https://www.worldometers.info/coronavirus/country/estonia/" xr:uid="{8067E9EA-C703-4B37-A6B9-39FCCDFC4E57}"/>
-    <hyperlink ref="A83" r:id="rId81" display="https://www.worldometers.info/coronavirus/country/senegal/" xr:uid="{4F8DE3CE-A0F2-433E-BF76-B932EDEAC888}"/>
-    <hyperlink ref="A84" r:id="rId82" display="https://www.worldometers.info/coronavirus/country/cote-d-ivoire/" xr:uid="{E6983BE2-3FDF-4583-8DBE-4CEA9632FB36}"/>
-    <hyperlink ref="A85" r:id="rId83" display="https://www.worldometers.info/coronavirus/country/macedonia/" xr:uid="{02DDBB97-FF18-42A2-B887-E16B32BDD21A}"/>
-    <hyperlink ref="A86" r:id="rId84" display="https://www.worldometers.info/coronavirus/country/new-zealand/" xr:uid="{0B99AC0D-2C95-4D19-B3AF-6EF9FF82E97C}"/>
-    <hyperlink ref="A87" r:id="rId85" display="https://www.worldometers.info/coronavirus/country/lithuania/" xr:uid="{70FEC191-9163-4B2E-B5D0-C5EDE1EE41D4}"/>
-    <hyperlink ref="A88" r:id="rId86" display="https://www.worldometers.info/coronavirus/country/slovenia/" xr:uid="{02C734A7-86BB-4C1F-AB14-BA6A93A4DFC6}"/>
-    <hyperlink ref="A89" r:id="rId87" display="https://www.worldometers.info/coronavirus/country/slovakia/" xr:uid="{391809AD-1CA9-4A7A-BD10-33514F8A6069}"/>
-    <hyperlink ref="A90" r:id="rId88" display="https://www.worldometers.info/coronavirus/country/sudan/" xr:uid="{220324E9-8BB1-445F-BB1C-59810D313E82}"/>
-    <hyperlink ref="A91" r:id="rId89" display="https://www.worldometers.info/coronavirus/country/djibouti/" xr:uid="{E3E0A22D-D354-44D1-8120-A488B5CAFD5B}"/>
-    <hyperlink ref="A92" r:id="rId90" display="https://www.worldometers.info/coronavirus/country/somalia/" xr:uid="{7071D0B5-D83C-4339-B70F-5B739BB2C927}"/>
-    <hyperlink ref="A93" r:id="rId91" display="https://www.worldometers.info/coronavirus/country/guatemala/" xr:uid="{901A8D60-26F3-4008-9594-54AB4E58E4A4}"/>
-    <hyperlink ref="A94" r:id="rId92" display="https://www.worldometers.info/coronavirus/country/china-hong-kong-sar/" xr:uid="{594F36FE-6A30-4E35-A5CA-24DD5A900A6E}"/>
-    <hyperlink ref="A95" r:id="rId93" display="https://www.worldometers.info/coronavirus/country/tunisia/" xr:uid="{BF86B82A-A9F6-4FC6-8AB0-E8D9693A195E}"/>
-    <hyperlink ref="A96" r:id="rId94" display="https://www.worldometers.info/coronavirus/country/mayotte/" xr:uid="{EDD5E61E-F4F0-4299-96F2-3BE1927530D4}"/>
-    <hyperlink ref="A97" r:id="rId95" display="https://www.worldometers.info/coronavirus/country/kyrgyzstan/" xr:uid="{7C6A126A-61B9-443F-8211-F96F16955EFC}"/>
-    <hyperlink ref="A98" r:id="rId96" display="https://www.worldometers.info/coronavirus/country/democratic-republic-of-the-congo/" xr:uid="{07A95480-0F30-46E0-B24E-B430EA0B7660}"/>
-    <hyperlink ref="A99" r:id="rId97" display="https://www.worldometers.info/coronavirus/country/el-salvador/" xr:uid="{BA3BBA62-B5AC-4520-BDC3-880A05E13DA0}"/>
-    <hyperlink ref="A100" r:id="rId98" display="https://www.worldometers.info/coronavirus/country/latvia/" xr:uid="{634CCCE7-D497-4732-BBF4-199138139101}"/>
-    <hyperlink ref="A101" r:id="rId99" display="https://www.worldometers.info/coronavirus/country/cyprus/" xr:uid="{43F5CA23-60E0-425F-BA75-60D6C4316043}"/>
-    <hyperlink ref="A102" r:id="rId100" display="https://www.worldometers.info/coronavirus/country/albania/" xr:uid="{FCC779FB-5903-4C45-B980-780664D8E64D}"/>
-    <hyperlink ref="A103" r:id="rId101" display="https://www.worldometers.info/coronavirus/country/sri-lanka/" xr:uid="{E40C156C-AA02-4D85-B64B-E46544107C12}"/>
-    <hyperlink ref="A104" r:id="rId102" display="https://www.worldometers.info/coronavirus/country/lebanon/" xr:uid="{1DC23C7A-4BC1-4966-8591-84AAD46B957C}"/>
-    <hyperlink ref="A105" r:id="rId103" display="https://www.worldometers.info/coronavirus/country/maldives/" xr:uid="{4B1A4C4D-7463-40B7-9A3E-0FCAE5589B8E}"/>
-    <hyperlink ref="A106" r:id="rId104" display="https://www.worldometers.info/coronavirus/country/niger/" xr:uid="{4D48BFA6-307D-426D-BECC-7AF3750C42BC}"/>
-    <hyperlink ref="A107" r:id="rId105" display="https://www.worldometers.info/coronavirus/country/costa-rica/" xr:uid="{EEB604D8-4736-46B0-9371-40CC895CF254}"/>
-    <hyperlink ref="A108" r:id="rId106" display="https://www.worldometers.info/coronavirus/country/andorra/" xr:uid="{A9274DCB-7D64-4313-BA37-E0582CCFCEF3}"/>
-    <hyperlink ref="A109" r:id="rId107" display="https://www.worldometers.info/coronavirus/country/burkina-faso/" xr:uid="{AF031F8D-3FF6-481B-9905-DD3B153A1C92}"/>
-    <hyperlink ref="A110" r:id="rId108" display="https://www.worldometers.info/coronavirus/country/guinea-bissau/" xr:uid="{C4B8EC17-14D3-4F87-B238-4F9D756713B7}"/>
-    <hyperlink ref="A111" r:id="rId109" display="https://www.worldometers.info/coronavirus/country/paraguay/" xr:uid="{BCC0733A-54FC-4183-8D3E-43700DFCB731}"/>
-    <hyperlink ref="A113" r:id="rId110" display="https://www.worldometers.info/coronavirus/country/uruguay/" xr:uid="{3AE2B416-2EEE-461C-9B0F-856881A1616B}"/>
-    <hyperlink ref="A114" r:id="rId111" display="https://www.worldometers.info/coronavirus/country/mali/" xr:uid="{FBFD3D5C-82DF-45A5-9AE9-A0ECF04A7924}"/>
-    <hyperlink ref="A115" r:id="rId112" display="https://www.worldometers.info/coronavirus/country/kenya/" xr:uid="{26981DBC-3827-44A7-95BD-425703F6A869}"/>
-    <hyperlink ref="A116" r:id="rId113" display="https://www.worldometers.info/coronavirus/country/gabon/" xr:uid="{9804C210-800B-4BD4-9AB5-E93AF0FD1827}"/>
-    <hyperlink ref="A117" r:id="rId114" display="https://www.worldometers.info/coronavirus/country/georgia/" xr:uid="{9A811FF0-556F-4569-9131-7850D57939A1}"/>
-    <hyperlink ref="A118" r:id="rId115" display="https://www.worldometers.info/coronavirus/country/san-marino/" xr:uid="{96A3E65A-06E9-414F-9BEA-3C3735913BD8}"/>
-    <hyperlink ref="A119" r:id="rId116" display="https://www.worldometers.info/coronavirus/country/tajikistan/" xr:uid="{C6B4DB57-081C-4F16-B9A6-85E773C7FDA8}"/>
-    <hyperlink ref="A120" r:id="rId117" display="https://www.worldometers.info/coronavirus/country/channel-islands/" xr:uid="{44D1BF88-22D2-427E-A5B8-AC75FDBAB6D0}"/>
-    <hyperlink ref="A121" r:id="rId118" display="https://www.worldometers.info/coronavirus/country/jordan/" xr:uid="{13AED476-2AEA-4424-A4CB-7D2F400EB23D}"/>
-    <hyperlink ref="A122" r:id="rId119" display="https://www.worldometers.info/coronavirus/country/tanzania/" xr:uid="{0F5F6BDD-23CD-4D88-AA53-ABB42166C483}"/>
-    <hyperlink ref="A123" r:id="rId120" display="https://www.worldometers.info/coronavirus/country/jamaica/" xr:uid="{09009CFF-B26F-4F20-ADEA-0A29B2D10702}"/>
-    <hyperlink ref="A124" r:id="rId121" display="https://www.worldometers.info/coronavirus/country/malta/" xr:uid="{E6A6A9D1-B7CB-4FE0-9BB5-C5CB4DA59B9E}"/>
-    <hyperlink ref="A125" r:id="rId122" display="https://www.worldometers.info/coronavirus/country/taiwan/" xr:uid="{735F3C90-34F9-4A17-9236-77FF51EDC860}"/>
-    <hyperlink ref="A126" r:id="rId123" display="https://www.worldometers.info/coronavirus/country/equatorial-guinea/" xr:uid="{F202DFB6-29F7-4937-9048-1F67B92FB75C}"/>
-    <hyperlink ref="A127" r:id="rId124" display="https://www.worldometers.info/coronavirus/country/reunion/" xr:uid="{A568A771-14EF-49E1-AF5A-E5BACB4CACD5}"/>
-    <hyperlink ref="A128" r:id="rId125" display="https://www.worldometers.info/coronavirus/country/venezuela/" xr:uid="{3C4C9373-3122-494C-9258-8B6A1BD32752}"/>
-    <hyperlink ref="A129" r:id="rId126" display="https://www.worldometers.info/coronavirus/country/state-of-palestine/" xr:uid="{ADE3CB5D-8011-4426-AD80-4248A0FDB425}"/>
-    <hyperlink ref="A130" r:id="rId127" display="https://www.worldometers.info/coronavirus/country/mauritius/" xr:uid="{489FA951-2C29-430E-86F9-459E058F0E28}"/>
-    <hyperlink ref="A131" r:id="rId128" display="https://www.worldometers.info/coronavirus/country/isle-of-man/" xr:uid="{6506E2AF-1DB8-4CB1-B20C-C8C57CF393F9}"/>
-    <hyperlink ref="A132" r:id="rId129" display="https://www.worldometers.info/coronavirus/country/montenegro/" xr:uid="{6BEF906C-40F5-4A46-AF7C-F7AEA05322F7}"/>
-    <hyperlink ref="A133" r:id="rId130" display="https://www.worldometers.info/coronavirus/country/chad/" xr:uid="{BED1C433-0E5E-418E-85CA-0F4948BC0F31}"/>
-    <hyperlink ref="A134" r:id="rId131" display="https://www.worldometers.info/coronavirus/country/benin/" xr:uid="{035F69B6-30B1-421D-B147-553FA4343018}"/>
-    <hyperlink ref="A135" r:id="rId132" display="https://www.worldometers.info/coronavirus/country/sierra-leone/" xr:uid="{3F94A5A0-FDC3-4017-8DCE-6F3FCF98975B}"/>
-    <hyperlink ref="A136" r:id="rId133" display="https://www.worldometers.info/coronavirus/country/viet-nam/" xr:uid="{74B3EC1B-9206-4F31-9F49-9EFF45CE5434}"/>
-    <hyperlink ref="A137" r:id="rId134" display="https://www.worldometers.info/coronavirus/country/rwanda/" xr:uid="{444C0D24-259E-4CEF-969A-D81C7EFA617A}"/>
-    <hyperlink ref="A138" r:id="rId135" display="https://www.worldometers.info/coronavirus/country/congo/" xr:uid="{E402796F-02F0-4FEB-894A-FCD1659E95E7}"/>
-    <hyperlink ref="A139" r:id="rId136" display="https://www.worldometers.info/coronavirus/country/zambia/" xr:uid="{85319FAE-AD0E-4C4C-AC15-02A536838909}"/>
-    <hyperlink ref="A140" r:id="rId137" display="https://www.worldometers.info/coronavirus/country/ethiopia/" xr:uid="{B60C993D-76DB-4DA8-8271-3E339E0936EF}"/>
-    <hyperlink ref="A141" r:id="rId138" display="https://www.worldometers.info/coronavirus/country/cabo-verde/" xr:uid="{E9824E37-0F42-4018-B2C9-2C89BE0AD8AB}"/>
-    <hyperlink ref="A142" r:id="rId139" display="https://www.worldometers.info/coronavirus/country/sao-tome-and-principe/" xr:uid="{0793C8F0-755D-4340-90AB-E6F7CE0E58B2}"/>
-    <hyperlink ref="A143" r:id="rId140" display="https://www.worldometers.info/coronavirus/country/liberia/" xr:uid="{D53A7963-BA14-48DD-B898-32D0CD826EBF}"/>
-    <hyperlink ref="A144" r:id="rId141" display="https://www.worldometers.info/coronavirus/country/madagascar/" xr:uid="{6C610F55-1DB5-4BED-A724-1C0441C48ABB}"/>
-    <hyperlink ref="A145" r:id="rId142" display="https://www.worldometers.info/coronavirus/country/martinique/" xr:uid="{9F998C89-90AB-4ECC-ABF1-D41F7D391640}"/>
-    <hyperlink ref="A146" r:id="rId143" display="https://www.worldometers.info/coronavirus/country/faeroe-islands/" xr:uid="{94BFD36B-0659-49EF-AC58-CB88C0E67F72}"/>
-    <hyperlink ref="A147" r:id="rId144" display="https://www.worldometers.info/coronavirus/country/haiti/" xr:uid="{65C4711F-E8F4-486A-878A-6EC2F2955616}"/>
-    <hyperlink ref="A148" r:id="rId145" display="https://www.worldometers.info/coronavirus/country/myanmar/" xr:uid="{70CC6BCE-3AAA-4D13-9245-166BE072882D}"/>
-    <hyperlink ref="A149" r:id="rId146" display="https://www.worldometers.info/coronavirus/country/togo/" xr:uid="{C91F2DBF-317A-44B1-A54E-1776C1450B1C}"/>
-    <hyperlink ref="A150" r:id="rId147" display="https://www.worldometers.info/coronavirus/country/swaziland/" xr:uid="{C8B61006-7362-45B6-952D-094BC39CB98A}"/>
-    <hyperlink ref="A151" r:id="rId148" display="https://www.worldometers.info/coronavirus/country/south-sudan/" xr:uid="{19E75336-0FF3-40EF-BA92-44FF02A7948B}"/>
-    <hyperlink ref="A152" r:id="rId149" display="https://www.worldometers.info/coronavirus/country/guadeloupe/" xr:uid="{9EC18938-72C2-42D4-AA95-A056943629C3}"/>
-    <hyperlink ref="A153" r:id="rId150" display="https://www.worldometers.info/coronavirus/country/gibraltar/" xr:uid="{5921EDD9-D79D-4728-A645-75ACCF909640}"/>
-    <hyperlink ref="A154" r:id="rId151" display="https://www.worldometers.info/coronavirus/country/french-guiana/" xr:uid="{1BB45675-AA5B-4A78-998E-F94EAFC1ACBD}"/>
-    <hyperlink ref="A155" r:id="rId152" display="https://www.worldometers.info/coronavirus/country/central-african-republic/" xr:uid="{6D1E2ED5-B03F-4309-96A7-A11B79515BCE}"/>
-    <hyperlink ref="A156" r:id="rId153" display="https://www.worldometers.info/coronavirus/country/brunei-darussalam/" xr:uid="{C509F02A-E18F-4E38-8EE8-7F0B93056CB8}"/>
-    <hyperlink ref="A157" r:id="rId154" display="https://www.worldometers.info/coronavirus/country/cambodia/" xr:uid="{6A244BC4-94F4-46DF-81E2-519C9BE4FD1C}"/>
-    <hyperlink ref="A158" r:id="rId155" display="https://www.worldometers.info/coronavirus/country/nepal/" xr:uid="{80D04439-6E14-4F75-8BBB-03F4B2AAB033}"/>
-    <hyperlink ref="A159" r:id="rId156" display="https://www.worldometers.info/coronavirus/country/uganda/" xr:uid="{40F726CB-D20F-4EC5-B0F5-74E09669BCE7}"/>
-    <hyperlink ref="A160" r:id="rId157" display="https://www.worldometers.info/coronavirus/country/bermuda/" xr:uid="{261B9EF0-B025-4909-8309-B0F1DD11E857}"/>
-    <hyperlink ref="A161" r:id="rId158" display="https://www.worldometers.info/coronavirus/country/trinidad-and-tobago/" xr:uid="{EA8EF4A2-948E-4B04-AF39-5D5D7072640C}"/>
-    <hyperlink ref="A162" r:id="rId159" display="https://www.worldometers.info/coronavirus/country/guyana/" xr:uid="{CDDE00D1-76C5-41DD-861E-B8D4C06E157F}"/>
-    <hyperlink ref="A163" r:id="rId160" display="https://www.worldometers.info/coronavirus/country/aruba/" xr:uid="{B8E7DCB9-3F0C-4AA6-B7DB-AF335743B2AF}"/>
-    <hyperlink ref="A164" r:id="rId161" display="https://www.worldometers.info/coronavirus/country/monaco/" xr:uid="{B063B1F1-5D45-4B81-AC35-05A03D9CE55E}"/>
-    <hyperlink ref="A165" r:id="rId162" display="https://www.worldometers.info/coronavirus/country/bahamas/" xr:uid="{B01A1A4A-F487-4671-B78D-D68CE57B1D89}"/>
-    <hyperlink ref="A166" r:id="rId163" display="https://www.worldometers.info/coronavirus/country/mozambique/" xr:uid="{422A0591-B5F8-4497-ACE0-E40BA4C6F3CA}"/>
-    <hyperlink ref="A167" r:id="rId164" display="https://www.worldometers.info/coronavirus/country/barbados/" xr:uid="{7AD0EC80-FDC0-46DF-A77B-FFF387C0F0A7}"/>
-    <hyperlink ref="A168" r:id="rId165" display="https://www.worldometers.info/coronavirus/country/liechtenstein/" xr:uid="{45BCC4FA-45F5-484A-B84D-05B847022B88}"/>
-    <hyperlink ref="A169" r:id="rId166" display="https://www.worldometers.info/coronavirus/country/cayman-islands/" xr:uid="{CAFE7CF7-8D56-4687-9F44-56A046AB7FE7}"/>
-    <hyperlink ref="A170" r:id="rId167" display="https://www.worldometers.info/coronavirus/country/sint-maarten/" xr:uid="{85DFA195-DB61-49B2-B8EC-21B0E98D27D1}"/>
-    <hyperlink ref="A171" r:id="rId168" display="https://www.worldometers.info/coronavirus/country/libya/" xr:uid="{1D816CF1-2379-4ACF-851C-E010DDC36A4F}"/>
-    <hyperlink ref="A172" r:id="rId169" display="https://www.worldometers.info/coronavirus/country/french-polynesia/" xr:uid="{A4D1892A-C640-4753-8084-4DA8A198563F}"/>
-    <hyperlink ref="A173" r:id="rId170" display="https://www.worldometers.info/coronavirus/country/malawi/" xr:uid="{35EFEC64-5DC0-46AF-A853-69EACB29526D}"/>
-    <hyperlink ref="A174" r:id="rId171" display="https://www.worldometers.info/coronavirus/country/yemen/" xr:uid="{9A3AB5D6-10C6-459F-89D5-F0969D02527F}"/>
-    <hyperlink ref="A175" r:id="rId172" display="https://www.worldometers.info/coronavirus/country/syria/" xr:uid="{D4FBBFCE-1AD7-4BCB-9908-CBC0C71AA1AB}"/>
-    <hyperlink ref="A176" r:id="rId173" display="https://www.worldometers.info/coronavirus/country/angola/" xr:uid="{28F757F4-86BF-47D3-9937-8552B8A74D7D}"/>
-    <hyperlink ref="A177" r:id="rId174" display="https://www.worldometers.info/coronavirus/country/china-macao-sar/" xr:uid="{287E6EC7-9780-4F9C-92D5-4DF8C8EBD66A}"/>
-    <hyperlink ref="A178" r:id="rId175" display="https://www.worldometers.info/coronavirus/country/mongolia/" xr:uid="{25389048-8597-4F61-96E8-466A3C8DA606}"/>
-    <hyperlink ref="A179" r:id="rId176" display="https://www.worldometers.info/coronavirus/country/saint-martin/" xr:uid="{6D30B333-2DAA-45EC-B287-66287EEF4551}"/>
-    <hyperlink ref="A180" r:id="rId177" display="https://www.worldometers.info/coronavirus/country/eritrea/" xr:uid="{7741DE3A-2B12-40B4-A5F7-80549E600D23}"/>
-    <hyperlink ref="A181" r:id="rId178" display="https://www.worldometers.info/coronavirus/country/zimbabwe/" xr:uid="{F014CFFA-0CC1-4B87-8DD7-3AA4B0CB277C}"/>
-    <hyperlink ref="A182" r:id="rId179" display="https://www.worldometers.info/coronavirus/country/antigua-and-barbuda/" xr:uid="{570C66FF-A34A-4A21-BD89-C297B0852C9E}"/>
-    <hyperlink ref="A183" r:id="rId180" display="https://www.worldometers.info/coronavirus/country/timor-leste/" xr:uid="{C63BACD2-F43D-434D-9E52-4B4CAA3A2820}"/>
-    <hyperlink ref="A184" r:id="rId181" display="https://www.worldometers.info/coronavirus/country/botswana/" xr:uid="{10DB9690-09ED-4860-B306-49C18CC11EA8}"/>
-    <hyperlink ref="A185" r:id="rId182" display="https://www.worldometers.info/coronavirus/country/grenada/" xr:uid="{4DE326B9-F151-4D60-AF97-6EB557B6D437}"/>
-    <hyperlink ref="A186" r:id="rId183" display="https://www.worldometers.info/coronavirus/country/gambia/" xr:uid="{19C4A6D8-1974-45B8-AEB1-D34F1F78149C}"/>
-    <hyperlink ref="A187" r:id="rId184" display="https://www.worldometers.info/coronavirus/country/laos/" xr:uid="{65D72D97-551C-4277-B47B-174AFF85D214}"/>
-    <hyperlink ref="A188" r:id="rId185" display="https://www.worldometers.info/coronavirus/country/belize/" xr:uid="{0D9E7F9C-5F65-4D3F-8543-8E386201730D}"/>
-    <hyperlink ref="A189" r:id="rId186" display="https://www.worldometers.info/coronavirus/country/fiji/" xr:uid="{0C3E6FDB-6B3E-4B35-AD71-097671ACE592}"/>
-    <hyperlink ref="A190" r:id="rId187" display="https://www.worldometers.info/coronavirus/country/new-caledonia/" xr:uid="{C25232AB-71E6-4A28-99BA-8E0D2DBA0F52}"/>
-    <hyperlink ref="A191" r:id="rId188" display="https://www.worldometers.info/coronavirus/country/saint-lucia/" xr:uid="{1C1DD169-5091-4BC3-915F-BD18707E2D61}"/>
-    <hyperlink ref="A192" r:id="rId189" display="https://www.worldometers.info/coronavirus/country/saint-vincent-and-the-grenadines/" xr:uid="{66ECB6F2-7EF5-4365-AE0B-194A0BCE6118}"/>
-    <hyperlink ref="A193" r:id="rId190" display="https://www.worldometers.info/coronavirus/country/nicaragua/" xr:uid="{AE14F214-FB42-4409-AB2D-EADE7BDD19FF}"/>
-    <hyperlink ref="A194" r:id="rId191" display="https://www.worldometers.info/coronavirus/country/curacao/" xr:uid="{06E781F7-6305-4039-B264-AE66C6CF9D85}"/>
-    <hyperlink ref="A195" r:id="rId192" display="https://www.worldometers.info/coronavirus/country/dominica/" xr:uid="{7D087345-F382-4884-9F14-74F38E007F54}"/>
-    <hyperlink ref="A196" r:id="rId193" display="https://www.worldometers.info/coronavirus/country/namibia/" xr:uid="{E014578D-280E-44F1-B037-039002E595AD}"/>
-    <hyperlink ref="A197" r:id="rId194" display="https://www.worldometers.info/coronavirus/country/burundi/" xr:uid="{C155229F-297F-4B7F-9914-DDDC03B24CCF}"/>
-    <hyperlink ref="A198" r:id="rId195" display="https://www.worldometers.info/coronavirus/country/saint-kitts-and-nevis/" xr:uid="{AC6A9E3C-28D7-430D-B95B-066239A0A35E}"/>
-    <hyperlink ref="A199" r:id="rId196" display="https://www.worldometers.info/coronavirus/country/falkland-islands-malvinas/" xr:uid="{5688CB8F-50EE-41CE-A9C6-7EE47EBCD538}"/>
-    <hyperlink ref="A200" r:id="rId197" display="https://www.worldometers.info/coronavirus/country/turks-and-caicos-islands/" xr:uid="{C1D9CFDF-76EE-4804-A76B-6204797C040B}"/>
-    <hyperlink ref="A201" r:id="rId198" display="https://www.worldometers.info/coronavirus/country/holy-see/" xr:uid="{3592E530-B1BE-4994-B61B-5113183F7180}"/>
-    <hyperlink ref="A202" r:id="rId199" display="https://www.worldometers.info/coronavirus/country/comoros/" xr:uid="{9DF73FF8-E261-49DA-9042-C56979BEB448}"/>
-    <hyperlink ref="A203" r:id="rId200" display="https://www.worldometers.info/coronavirus/country/montserrat/" xr:uid="{EED43EB7-FCEE-4539-A43F-D3DB5BE8BF93}"/>
-    <hyperlink ref="A204" r:id="rId201" display="https://www.worldometers.info/coronavirus/country/greenland/" xr:uid="{E904BF35-B409-42B8-8129-09D909AA3B9F}"/>
-    <hyperlink ref="A205" r:id="rId202" display="https://www.worldometers.info/coronavirus/country/seychelles/" xr:uid="{1367B780-6C2B-4DC3-9C0F-DC172B90BEB2}"/>
-    <hyperlink ref="A206" r:id="rId203" display="https://www.worldometers.info/coronavirus/country/suriname/" xr:uid="{6EAF787A-9795-483F-8F84-698EACCD5839}"/>
-    <hyperlink ref="A208" r:id="rId204" display="https://www.worldometers.info/coronavirus/country/bhutan/" xr:uid="{D7EBAD0C-F116-4CF2-A341-29A996D01AA4}"/>
-    <hyperlink ref="A209" r:id="rId205" display="https://www.worldometers.info/coronavirus/country/mauritania/" xr:uid="{A260FFF9-6A42-48F0-9663-170103A41718}"/>
-    <hyperlink ref="A210" r:id="rId206" display="https://www.worldometers.info/coronavirus/country/papua-new-guinea/" xr:uid="{00367934-FD8F-4C86-8AB4-46CD8E4722D7}"/>
-    <hyperlink ref="A211" r:id="rId207" display="https://www.worldometers.info/coronavirus/country/british-virgin-islands/" xr:uid="{B633A84E-7C89-4AA2-830D-16916BEEC296}"/>
-    <hyperlink ref="A212" r:id="rId208" display="https://www.worldometers.info/coronavirus/country/caribbean-netherlands/" xr:uid="{2682D320-5F26-4986-BC52-E6E53F93DBB3}"/>
-    <hyperlink ref="A213" r:id="rId209" display="https://www.worldometers.info/coronavirus/country/saint-barthelemy/" xr:uid="{2AE0F76E-BEB5-4F15-9E31-6E63FF8196C8}"/>
-    <hyperlink ref="A214" r:id="rId210" display="https://www.worldometers.info/coronavirus/country/western-sahara/" xr:uid="{BD0CC9AA-6C83-4868-9D64-8392A13044D3}"/>
-    <hyperlink ref="A215" r:id="rId211" display="https://www.worldometers.info/coronavirus/country/anguilla/" xr:uid="{FC20C954-5D52-4079-A249-E0B17218F284}"/>
-    <hyperlink ref="A216" r:id="rId212" display="https://www.worldometers.info/coronavirus/country/saint-pierre-and-miquelon/" xr:uid="{C659B67B-213F-4840-8D4C-9ADCD576BEC7}"/>
+    <hyperlink ref="A216" r:id="rId1" display="https://www.worldometers.info/coronavirus/country/saint-pierre-and-miquelon/" xr:uid="{C659B67B-213F-4840-8D4C-9ADCD576BEC7}"/>
+    <hyperlink ref="A215" r:id="rId2" display="https://www.worldometers.info/coronavirus/country/anguilla/" xr:uid="{FC20C954-5D52-4079-A249-E0B17218F284}"/>
+    <hyperlink ref="A214" r:id="rId3" display="https://www.worldometers.info/coronavirus/country/western-sahara/" xr:uid="{BD0CC9AA-6C83-4868-9D64-8392A13044D3}"/>
+    <hyperlink ref="A213" r:id="rId4" display="https://www.worldometers.info/coronavirus/country/saint-barthelemy/" xr:uid="{2AE0F76E-BEB5-4F15-9E31-6E63FF8196C8}"/>
+    <hyperlink ref="A212" r:id="rId5" display="https://www.worldometers.info/coronavirus/country/caribbean-netherlands/" xr:uid="{2682D320-5F26-4986-BC52-E6E53F93DBB3}"/>
+    <hyperlink ref="A211" r:id="rId6" display="https://www.worldometers.info/coronavirus/country/british-virgin-islands/" xr:uid="{B633A84E-7C89-4AA2-830D-16916BEEC296}"/>
+    <hyperlink ref="A210" r:id="rId7" display="https://www.worldometers.info/coronavirus/country/papua-new-guinea/" xr:uid="{00367934-FD8F-4C86-8AB4-46CD8E4722D7}"/>
+    <hyperlink ref="A209" r:id="rId8" display="https://www.worldometers.info/coronavirus/country/mauritania/" xr:uid="{A260FFF9-6A42-48F0-9663-170103A41718}"/>
+    <hyperlink ref="A208" r:id="rId9" display="https://www.worldometers.info/coronavirus/country/bhutan/" xr:uid="{D7EBAD0C-F116-4CF2-A341-29A996D01AA4}"/>
+    <hyperlink ref="A206" r:id="rId10" display="https://www.worldometers.info/coronavirus/country/suriname/" xr:uid="{6EAF787A-9795-483F-8F84-698EACCD5839}"/>
+    <hyperlink ref="A205" r:id="rId11" display="https://www.worldometers.info/coronavirus/country/seychelles/" xr:uid="{1367B780-6C2B-4DC3-9C0F-DC172B90BEB2}"/>
+    <hyperlink ref="A204" r:id="rId12" display="https://www.worldometers.info/coronavirus/country/greenland/" xr:uid="{E904BF35-B409-42B8-8129-09D909AA3B9F}"/>
+    <hyperlink ref="A203" r:id="rId13" display="https://www.worldometers.info/coronavirus/country/montserrat/" xr:uid="{EED43EB7-FCEE-4539-A43F-D3DB5BE8BF93}"/>
+    <hyperlink ref="A202" r:id="rId14" display="https://www.worldometers.info/coronavirus/country/comoros/" xr:uid="{9DF73FF8-E261-49DA-9042-C56979BEB448}"/>
+    <hyperlink ref="A201" r:id="rId15" display="https://www.worldometers.info/coronavirus/country/holy-see/" xr:uid="{3592E530-B1BE-4994-B61B-5113183F7180}"/>
+    <hyperlink ref="A200" r:id="rId16" display="https://www.worldometers.info/coronavirus/country/turks-and-caicos-islands/" xr:uid="{C1D9CFDF-76EE-4804-A76B-6204797C040B}"/>
+    <hyperlink ref="A199" r:id="rId17" display="https://www.worldometers.info/coronavirus/country/falkland-islands-malvinas/" xr:uid="{5688CB8F-50EE-41CE-A9C6-7EE47EBCD538}"/>
+    <hyperlink ref="A198" r:id="rId18" display="https://www.worldometers.info/coronavirus/country/saint-kitts-and-nevis/" xr:uid="{AC6A9E3C-28D7-430D-B95B-066239A0A35E}"/>
+    <hyperlink ref="A197" r:id="rId19" display="https://www.worldometers.info/coronavirus/country/burundi/" xr:uid="{C155229F-297F-4B7F-9914-DDDC03B24CCF}"/>
+    <hyperlink ref="A196" r:id="rId20" display="https://www.worldometers.info/coronavirus/country/namibia/" xr:uid="{E014578D-280E-44F1-B037-039002E595AD}"/>
+    <hyperlink ref="A195" r:id="rId21" display="https://www.worldometers.info/coronavirus/country/dominica/" xr:uid="{7D087345-F382-4884-9F14-74F38E007F54}"/>
+    <hyperlink ref="A194" r:id="rId22" display="https://www.worldometers.info/coronavirus/country/curacao/" xr:uid="{06E781F7-6305-4039-B264-AE66C6CF9D85}"/>
+    <hyperlink ref="A193" r:id="rId23" display="https://www.worldometers.info/coronavirus/country/nicaragua/" xr:uid="{AE14F214-FB42-4409-AB2D-EADE7BDD19FF}"/>
+    <hyperlink ref="A192" r:id="rId24" display="https://www.worldometers.info/coronavirus/country/saint-vincent-and-the-grenadines/" xr:uid="{66ECB6F2-7EF5-4365-AE0B-194A0BCE6118}"/>
+    <hyperlink ref="A191" r:id="rId25" display="https://www.worldometers.info/coronavirus/country/saint-lucia/" xr:uid="{1C1DD169-5091-4BC3-915F-BD18707E2D61}"/>
+    <hyperlink ref="A190" r:id="rId26" display="https://www.worldometers.info/coronavirus/country/new-caledonia/" xr:uid="{C25232AB-71E6-4A28-99BA-8E0D2DBA0F52}"/>
+    <hyperlink ref="A189" r:id="rId27" display="https://www.worldometers.info/coronavirus/country/fiji/" xr:uid="{0C3E6FDB-6B3E-4B35-AD71-097671ACE592}"/>
+    <hyperlink ref="A188" r:id="rId28" display="https://www.worldometers.info/coronavirus/country/belize/" xr:uid="{0D9E7F9C-5F65-4D3F-8543-8E386201730D}"/>
+    <hyperlink ref="A187" r:id="rId29" display="https://www.worldometers.info/coronavirus/country/laos/" xr:uid="{65D72D97-551C-4277-B47B-174AFF85D214}"/>
+    <hyperlink ref="A186" r:id="rId30" display="https://www.worldometers.info/coronavirus/country/gambia/" xr:uid="{19C4A6D8-1974-45B8-AEB1-D34F1F78149C}"/>
+    <hyperlink ref="A185" r:id="rId31" display="https://www.worldometers.info/coronavirus/country/grenada/" xr:uid="{4DE326B9-F151-4D60-AF97-6EB557B6D437}"/>
+    <hyperlink ref="A184" r:id="rId32" display="https://www.worldometers.info/coronavirus/country/botswana/" xr:uid="{10DB9690-09ED-4860-B306-49C18CC11EA8}"/>
+    <hyperlink ref="A183" r:id="rId33" display="https://www.worldometers.info/coronavirus/country/timor-leste/" xr:uid="{C63BACD2-F43D-434D-9E52-4B4CAA3A2820}"/>
+    <hyperlink ref="A182" r:id="rId34" display="https://www.worldometers.info/coronavirus/country/antigua-and-barbuda/" xr:uid="{570C66FF-A34A-4A21-BD89-C297B0852C9E}"/>
+    <hyperlink ref="A181" r:id="rId35" display="https://www.worldometers.info/coronavirus/country/zimbabwe/" xr:uid="{F014CFFA-0CC1-4B87-8DD7-3AA4B0CB277C}"/>
+    <hyperlink ref="A180" r:id="rId36" display="https://www.worldometers.info/coronavirus/country/eritrea/" xr:uid="{7741DE3A-2B12-40B4-A5F7-80549E600D23}"/>
+    <hyperlink ref="A179" r:id="rId37" display="https://www.worldometers.info/coronavirus/country/saint-martin/" xr:uid="{6D30B333-2DAA-45EC-B287-66287EEF4551}"/>
+    <hyperlink ref="A178" r:id="rId38" display="https://www.worldometers.info/coronavirus/country/mongolia/" xr:uid="{25389048-8597-4F61-96E8-466A3C8DA606}"/>
+    <hyperlink ref="A177" r:id="rId39" display="https://www.worldometers.info/coronavirus/country/china-macao-sar/" xr:uid="{287E6EC7-9780-4F9C-92D5-4DF8C8EBD66A}"/>
+    <hyperlink ref="A176" r:id="rId40" display="https://www.worldometers.info/coronavirus/country/angola/" xr:uid="{28F757F4-86BF-47D3-9937-8552B8A74D7D}"/>
+    <hyperlink ref="A175" r:id="rId41" display="https://www.worldometers.info/coronavirus/country/syria/" xr:uid="{D4FBBFCE-1AD7-4BCB-9908-CBC0C71AA1AB}"/>
+    <hyperlink ref="A174" r:id="rId42" display="https://www.worldometers.info/coronavirus/country/yemen/" xr:uid="{9A3AB5D6-10C6-459F-89D5-F0969D02527F}"/>
+    <hyperlink ref="A173" r:id="rId43" display="https://www.worldometers.info/coronavirus/country/malawi/" xr:uid="{35EFEC64-5DC0-46AF-A853-69EACB29526D}"/>
+    <hyperlink ref="A172" r:id="rId44" display="https://www.worldometers.info/coronavirus/country/french-polynesia/" xr:uid="{A4D1892A-C640-4753-8084-4DA8A198563F}"/>
+    <hyperlink ref="A171" r:id="rId45" display="https://www.worldometers.info/coronavirus/country/libya/" xr:uid="{1D816CF1-2379-4ACF-851C-E010DDC36A4F}"/>
+    <hyperlink ref="A170" r:id="rId46" display="https://www.worldometers.info/coronavirus/country/sint-maarten/" xr:uid="{85DFA195-DB61-49B2-B8EC-21B0E98D27D1}"/>
+    <hyperlink ref="A169" r:id="rId47" display="https://www.worldometers.info/coronavirus/country/cayman-islands/" xr:uid="{CAFE7CF7-8D56-4687-9F44-56A046AB7FE7}"/>
+    <hyperlink ref="A168" r:id="rId48" display="https://www.worldometers.info/coronavirus/country/liechtenstein/" xr:uid="{45BCC4FA-45F5-484A-B84D-05B847022B88}"/>
+    <hyperlink ref="A167" r:id="rId49" display="https://www.worldometers.info/coronavirus/country/barbados/" xr:uid="{7AD0EC80-FDC0-46DF-A77B-FFF387C0F0A7}"/>
+    <hyperlink ref="A166" r:id="rId50" display="https://www.worldometers.info/coronavirus/country/mozambique/" xr:uid="{422A0591-B5F8-4497-ACE0-E40BA4C6F3CA}"/>
+    <hyperlink ref="A165" r:id="rId51" display="https://www.worldometers.info/coronavirus/country/bahamas/" xr:uid="{B01A1A4A-F487-4671-B78D-D68CE57B1D89}"/>
+    <hyperlink ref="A164" r:id="rId52" display="https://www.worldometers.info/coronavirus/country/monaco/" xr:uid="{B063B1F1-5D45-4B81-AC35-05A03D9CE55E}"/>
+    <hyperlink ref="A163" r:id="rId53" display="https://www.worldometers.info/coronavirus/country/aruba/" xr:uid="{B8E7DCB9-3F0C-4AA6-B7DB-AF335743B2AF}"/>
+    <hyperlink ref="A162" r:id="rId54" display="https://www.worldometers.info/coronavirus/country/guyana/" xr:uid="{CDDE00D1-76C5-41DD-861E-B8D4C06E157F}"/>
+    <hyperlink ref="A161" r:id="rId55" display="https://www.worldometers.info/coronavirus/country/trinidad-and-tobago/" xr:uid="{EA8EF4A2-948E-4B04-AF39-5D5D7072640C}"/>
+    <hyperlink ref="A160" r:id="rId56" display="https://www.worldometers.info/coronavirus/country/bermuda/" xr:uid="{261B9EF0-B025-4909-8309-B0F1DD11E857}"/>
+    <hyperlink ref="A159" r:id="rId57" display="https://www.worldometers.info/coronavirus/country/uganda/" xr:uid="{40F726CB-D20F-4EC5-B0F5-74E09669BCE7}"/>
+    <hyperlink ref="A158" r:id="rId58" display="https://www.worldometers.info/coronavirus/country/nepal/" xr:uid="{80D04439-6E14-4F75-8BBB-03F4B2AAB033}"/>
+    <hyperlink ref="A157" r:id="rId59" display="https://www.worldometers.info/coronavirus/country/cambodia/" xr:uid="{6A244BC4-94F4-46DF-81E2-519C9BE4FD1C}"/>
+    <hyperlink ref="A156" r:id="rId60" display="https://www.worldometers.info/coronavirus/country/brunei-darussalam/" xr:uid="{C509F02A-E18F-4E38-8EE8-7F0B93056CB8}"/>
+    <hyperlink ref="A155" r:id="rId61" display="https://www.worldometers.info/coronavirus/country/central-african-republic/" xr:uid="{6D1E2ED5-B03F-4309-96A7-A11B79515BCE}"/>
+    <hyperlink ref="A154" r:id="rId62" display="https://www.worldometers.info/coronavirus/country/french-guiana/" xr:uid="{1BB45675-AA5B-4A78-998E-F94EAFC1ACBD}"/>
+    <hyperlink ref="A153" r:id="rId63" display="https://www.worldometers.info/coronavirus/country/gibraltar/" xr:uid="{5921EDD9-D79D-4728-A645-75ACCF909640}"/>
+    <hyperlink ref="A152" r:id="rId64" display="https://www.worldometers.info/coronavirus/country/guadeloupe/" xr:uid="{9EC18938-72C2-42D4-AA95-A056943629C3}"/>
+    <hyperlink ref="A151" r:id="rId65" display="https://www.worldometers.info/coronavirus/country/south-sudan/" xr:uid="{19E75336-0FF3-40EF-BA92-44FF02A7948B}"/>
+    <hyperlink ref="A150" r:id="rId66" display="https://www.worldometers.info/coronavirus/country/swaziland/" xr:uid="{C8B61006-7362-45B6-952D-094BC39CB98A}"/>
+    <hyperlink ref="A149" r:id="rId67" display="https://www.worldometers.info/coronavirus/country/togo/" xr:uid="{C91F2DBF-317A-44B1-A54E-1776C1450B1C}"/>
+    <hyperlink ref="A148" r:id="rId68" display="https://www.worldometers.info/coronavirus/country/myanmar/" xr:uid="{70CC6BCE-3AAA-4D13-9245-166BE072882D}"/>
+    <hyperlink ref="A147" r:id="rId69" display="https://www.worldometers.info/coronavirus/country/haiti/" xr:uid="{65C4711F-E8F4-486A-878A-6EC2F2955616}"/>
+    <hyperlink ref="A146" r:id="rId70" display="https://www.worldometers.info/coronavirus/country/faeroe-islands/" xr:uid="{94BFD36B-0659-49EF-AC58-CB88C0E67F72}"/>
+    <hyperlink ref="A145" r:id="rId71" display="https://www.worldometers.info/coronavirus/country/martinique/" xr:uid="{9F998C89-90AB-4ECC-ABF1-D41F7D391640}"/>
+    <hyperlink ref="A144" r:id="rId72" display="https://www.worldometers.info/coronavirus/country/madagascar/" xr:uid="{6C610F55-1DB5-4BED-A724-1C0441C48ABB}"/>
+    <hyperlink ref="A143" r:id="rId73" display="https://www.worldometers.info/coronavirus/country/liberia/" xr:uid="{D53A7963-BA14-48DD-B898-32D0CD826EBF}"/>
+    <hyperlink ref="A142" r:id="rId74" display="https://www.worldometers.info/coronavirus/country/sao-tome-and-principe/" xr:uid="{0793C8F0-755D-4340-90AB-E6F7CE0E58B2}"/>
+    <hyperlink ref="A141" r:id="rId75" display="https://www.worldometers.info/coronavirus/country/cabo-verde/" xr:uid="{E9824E37-0F42-4018-B2C9-2C89BE0AD8AB}"/>
+    <hyperlink ref="A140" r:id="rId76" display="https://www.worldometers.info/coronavirus/country/ethiopia/" xr:uid="{B60C993D-76DB-4DA8-8271-3E339E0936EF}"/>
+    <hyperlink ref="A139" r:id="rId77" display="https://www.worldometers.info/coronavirus/country/zambia/" xr:uid="{85319FAE-AD0E-4C4C-AC15-02A536838909}"/>
+    <hyperlink ref="A138" r:id="rId78" display="https://www.worldometers.info/coronavirus/country/congo/" xr:uid="{E402796F-02F0-4FEB-894A-FCD1659E95E7}"/>
+    <hyperlink ref="A137" r:id="rId79" display="https://www.worldometers.info/coronavirus/country/rwanda/" xr:uid="{444C0D24-259E-4CEF-969A-D81C7EFA617A}"/>
+    <hyperlink ref="A136" r:id="rId80" display="https://www.worldometers.info/coronavirus/country/viet-nam/" xr:uid="{74B3EC1B-9206-4F31-9F49-9EFF45CE5434}"/>
+    <hyperlink ref="A135" r:id="rId81" display="https://www.worldometers.info/coronavirus/country/sierra-leone/" xr:uid="{3F94A5A0-FDC3-4017-8DCE-6F3FCF98975B}"/>
+    <hyperlink ref="A134" r:id="rId82" display="https://www.worldometers.info/coronavirus/country/benin/" xr:uid="{035F69B6-30B1-421D-B147-553FA4343018}"/>
+    <hyperlink ref="A133" r:id="rId83" display="https://www.worldometers.info/coronavirus/country/chad/" xr:uid="{BED1C433-0E5E-418E-85CA-0F4948BC0F31}"/>
+    <hyperlink ref="A132" r:id="rId84" display="https://www.worldometers.info/coronavirus/country/montenegro/" xr:uid="{6BEF906C-40F5-4A46-AF7C-F7AEA05322F7}"/>
+    <hyperlink ref="A131" r:id="rId85" display="https://www.worldometers.info/coronavirus/country/isle-of-man/" xr:uid="{6506E2AF-1DB8-4CB1-B20C-C8C57CF393F9}"/>
+    <hyperlink ref="A130" r:id="rId86" display="https://www.worldometers.info/coronavirus/country/mauritius/" xr:uid="{489FA951-2C29-430E-86F9-459E058F0E28}"/>
+    <hyperlink ref="A129" r:id="rId87" display="https://www.worldometers.info/coronavirus/country/state-of-palestine/" xr:uid="{ADE3CB5D-8011-4426-AD80-4248A0FDB425}"/>
+    <hyperlink ref="A128" r:id="rId88" display="https://www.worldometers.info/coronavirus/country/venezuela/" xr:uid="{3C4C9373-3122-494C-9258-8B6A1BD32752}"/>
+    <hyperlink ref="A127" r:id="rId89" display="https://www.worldometers.info/coronavirus/country/reunion/" xr:uid="{A568A771-14EF-49E1-AF5A-E5BACB4CACD5}"/>
+    <hyperlink ref="A126" r:id="rId90" display="https://www.worldometers.info/coronavirus/country/equatorial-guinea/" xr:uid="{F202DFB6-29F7-4937-9048-1F67B92FB75C}"/>
+    <hyperlink ref="A125" r:id="rId91" display="https://www.worldometers.info/coronavirus/country/taiwan/" xr:uid="{735F3C90-34F9-4A17-9236-77FF51EDC860}"/>
+    <hyperlink ref="A124" r:id="rId92" display="https://www.worldometers.info/coronavirus/country/malta/" xr:uid="{E6A6A9D1-B7CB-4FE0-9BB5-C5CB4DA59B9E}"/>
+    <hyperlink ref="A123" r:id="rId93" display="https://www.worldometers.info/coronavirus/country/jamaica/" xr:uid="{09009CFF-B26F-4F20-ADEA-0A29B2D10702}"/>
+    <hyperlink ref="A122" r:id="rId94" display="https://www.worldometers.info/coronavirus/country/tanzania/" xr:uid="{0F5F6BDD-23CD-4D88-AA53-ABB42166C483}"/>
+    <hyperlink ref="A121" r:id="rId95" display="https://www.worldometers.info/coronavirus/country/jordan/" xr:uid="{13AED476-2AEA-4424-A4CB-7D2F400EB23D}"/>
+    <hyperlink ref="A120" r:id="rId96" display="https://www.worldometers.info/coronavirus/country/channel-islands/" xr:uid="{44D1BF88-22D2-427E-A5B8-AC75FDBAB6D0}"/>
+    <hyperlink ref="A119" r:id="rId97" display="https://www.worldometers.info/coronavirus/country/tajikistan/" xr:uid="{C6B4DB57-081C-4F16-B9A6-85E773C7FDA8}"/>
+    <hyperlink ref="A118" r:id="rId98" display="https://www.worldometers.info/coronavirus/country/san-marino/" xr:uid="{96A3E65A-06E9-414F-9BEA-3C3735913BD8}"/>
+    <hyperlink ref="A117" r:id="rId99" display="https://www.worldometers.info/coronavirus/country/georgia/" xr:uid="{9A811FF0-556F-4569-9131-7850D57939A1}"/>
+    <hyperlink ref="A116" r:id="rId100" display="https://www.worldometers.info/coronavirus/country/gabon/" xr:uid="{9804C210-800B-4BD4-9AB5-E93AF0FD1827}"/>
+    <hyperlink ref="A115" r:id="rId101" display="https://www.worldometers.info/coronavirus/country/kenya/" xr:uid="{26981DBC-3827-44A7-95BD-425703F6A869}"/>
+    <hyperlink ref="A114" r:id="rId102" display="https://www.worldometers.info/coronavirus/country/mali/" xr:uid="{FBFD3D5C-82DF-45A5-9AE9-A0ECF04A7924}"/>
+    <hyperlink ref="A113" r:id="rId103" display="https://www.worldometers.info/coronavirus/country/uruguay/" xr:uid="{3AE2B416-2EEE-461C-9B0F-856881A1616B}"/>
+    <hyperlink ref="A111" r:id="rId104" display="https://www.worldometers.info/coronavirus/country/paraguay/" xr:uid="{BCC0733A-54FC-4183-8D3E-43700DFCB731}"/>
+    <hyperlink ref="A110" r:id="rId105" display="https://www.worldometers.info/coronavirus/country/guinea-bissau/" xr:uid="{C4B8EC17-14D3-4F87-B238-4F9D756713B7}"/>
+    <hyperlink ref="A109" r:id="rId106" display="https://www.worldometers.info/coronavirus/country/burkina-faso/" xr:uid="{AF031F8D-3FF6-481B-9905-DD3B153A1C92}"/>
+    <hyperlink ref="A108" r:id="rId107" display="https://www.worldometers.info/coronavirus/country/andorra/" xr:uid="{A9274DCB-7D64-4313-BA37-E0582CCFCEF3}"/>
+    <hyperlink ref="A107" r:id="rId108" display="https://www.worldometers.info/coronavirus/country/costa-rica/" xr:uid="{EEB604D8-4736-46B0-9371-40CC895CF254}"/>
+    <hyperlink ref="A106" r:id="rId109" display="https://www.worldometers.info/coronavirus/country/niger/" xr:uid="{4D48BFA6-307D-426D-BECC-7AF3750C42BC}"/>
+    <hyperlink ref="A105" r:id="rId110" display="https://www.worldometers.info/coronavirus/country/maldives/" xr:uid="{4B1A4C4D-7463-40B7-9A3E-0FCAE5589B8E}"/>
+    <hyperlink ref="A104" r:id="rId111" display="https://www.worldometers.info/coronavirus/country/lebanon/" xr:uid="{1DC23C7A-4BC1-4966-8591-84AAD46B957C}"/>
+    <hyperlink ref="A103" r:id="rId112" display="https://www.worldometers.info/coronavirus/country/sri-lanka/" xr:uid="{E40C156C-AA02-4D85-B64B-E46544107C12}"/>
+    <hyperlink ref="A102" r:id="rId113" display="https://www.worldometers.info/coronavirus/country/albania/" xr:uid="{FCC779FB-5903-4C45-B980-780664D8E64D}"/>
+    <hyperlink ref="A101" r:id="rId114" display="https://www.worldometers.info/coronavirus/country/cyprus/" xr:uid="{43F5CA23-60E0-425F-BA75-60D6C4316043}"/>
+    <hyperlink ref="A100" r:id="rId115" display="https://www.worldometers.info/coronavirus/country/latvia/" xr:uid="{634CCCE7-D497-4732-BBF4-199138139101}"/>
+    <hyperlink ref="A99" r:id="rId116" display="https://www.worldometers.info/coronavirus/country/el-salvador/" xr:uid="{BA3BBA62-B5AC-4520-BDC3-880A05E13DA0}"/>
+    <hyperlink ref="A98" r:id="rId117" display="https://www.worldometers.info/coronavirus/country/democratic-republic-of-the-congo/" xr:uid="{07A95480-0F30-46E0-B24E-B430EA0B7660}"/>
+    <hyperlink ref="A97" r:id="rId118" display="https://www.worldometers.info/coronavirus/country/kyrgyzstan/" xr:uid="{7C6A126A-61B9-443F-8211-F96F16955EFC}"/>
+    <hyperlink ref="A96" r:id="rId119" display="https://www.worldometers.info/coronavirus/country/mayotte/" xr:uid="{EDD5E61E-F4F0-4299-96F2-3BE1927530D4}"/>
+    <hyperlink ref="A95" r:id="rId120" display="https://www.worldometers.info/coronavirus/country/tunisia/" xr:uid="{BF86B82A-A9F6-4FC6-8AB0-E8D9693A195E}"/>
+    <hyperlink ref="A94" r:id="rId121" display="https://www.worldometers.info/coronavirus/country/china-hong-kong-sar/" xr:uid="{594F36FE-6A30-4E35-A5CA-24DD5A900A6E}"/>
+    <hyperlink ref="A93" r:id="rId122" display="https://www.worldometers.info/coronavirus/country/guatemala/" xr:uid="{901A8D60-26F3-4008-9594-54AB4E58E4A4}"/>
+    <hyperlink ref="A92" r:id="rId123" display="https://www.worldometers.info/coronavirus/country/somalia/" xr:uid="{7071D0B5-D83C-4339-B70F-5B739BB2C927}"/>
+    <hyperlink ref="A91" r:id="rId124" display="https://www.worldometers.info/coronavirus/country/djibouti/" xr:uid="{E3E0A22D-D354-44D1-8120-A488B5CAFD5B}"/>
+    <hyperlink ref="A90" r:id="rId125" display="https://www.worldometers.info/coronavirus/country/sudan/" xr:uid="{220324E9-8BB1-445F-BB1C-59810D313E82}"/>
+    <hyperlink ref="A89" r:id="rId126" display="https://www.worldometers.info/coronavirus/country/slovakia/" xr:uid="{391809AD-1CA9-4A7A-BD10-33514F8A6069}"/>
+    <hyperlink ref="A88" r:id="rId127" display="https://www.worldometers.info/coronavirus/country/slovenia/" xr:uid="{02C734A7-86BB-4C1F-AB14-BA6A93A4DFC6}"/>
+    <hyperlink ref="A87" r:id="rId128" display="https://www.worldometers.info/coronavirus/country/lithuania/" xr:uid="{70FEC191-9163-4B2E-B5D0-C5EDE1EE41D4}"/>
+    <hyperlink ref="A86" r:id="rId129" display="https://www.worldometers.info/coronavirus/country/new-zealand/" xr:uid="{0B99AC0D-2C95-4D19-B3AF-6EF9FF82E97C}"/>
+    <hyperlink ref="A85" r:id="rId130" display="https://www.worldometers.info/coronavirus/country/macedonia/" xr:uid="{02DDBB97-FF18-42A2-B887-E16B32BDD21A}"/>
+    <hyperlink ref="A84" r:id="rId131" display="https://www.worldometers.info/coronavirus/country/cote-d-ivoire/" xr:uid="{E6983BE2-3FDF-4583-8DBE-4CEA9632FB36}"/>
+    <hyperlink ref="A83" r:id="rId132" display="https://www.worldometers.info/coronavirus/country/senegal/" xr:uid="{4F8DE3CE-A0F2-433E-BF76-B932EDEAC888}"/>
+    <hyperlink ref="A82" r:id="rId133" display="https://www.worldometers.info/coronavirus/country/estonia/" xr:uid="{8067E9EA-C703-4B37-A6B9-39FCCDFC4E57}"/>
+    <hyperlink ref="A81" r:id="rId134" display="https://www.worldometers.info/coronavirus/country/cuba/" xr:uid="{0B6CFAE8-4CD3-4C58-9F15-3337EF52F9CD}"/>
+    <hyperlink ref="A80" r:id="rId135" display="https://www.worldometers.info/coronavirus/country/iceland/" xr:uid="{4F4DDD52-DB70-4F76-A917-782354F5CEA0}"/>
+    <hyperlink ref="A79" r:id="rId136" display="https://www.worldometers.info/coronavirus/country/honduras/" xr:uid="{14AA02E5-C787-4298-86C0-2A82C3457EF6}"/>
+    <hyperlink ref="A78" r:id="rId137" display="https://www.worldometers.info/coronavirus/country/bulgaria/" xr:uid="{B48937A8-5245-4AA5-9BA0-94CBCB6C0280}"/>
+    <hyperlink ref="A77" r:id="rId138" display="https://www.worldometers.info/coronavirus/country/bosnia-and-herzegovina/" xr:uid="{33A2987C-25C0-4B8C-BEE1-1863B71B4C88}"/>
+    <hyperlink ref="A76" r:id="rId139" display="https://www.worldometers.info/coronavirus/country/guinea/" xr:uid="{D898CE27-ACD9-4DE9-8F7F-A8C2691933E7}"/>
+    <hyperlink ref="A75" r:id="rId140" display="https://www.worldometers.info/coronavirus/country/croatia/" xr:uid="{D4568223-A99C-4A44-B408-78F7FE0F5DCC}"/>
+    <hyperlink ref="A74" r:id="rId141" display="https://www.worldometers.info/coronavirus/country/uzbekistan/" xr:uid="{0BDB1BEF-61B4-4BF9-9622-E6D56EDDFE82}"/>
+    <hyperlink ref="A73" r:id="rId142" display="https://www.worldometers.info/coronavirus/country/azerbaijan/" xr:uid="{938F6494-D464-4CF1-AFEE-F65EFD57390C}"/>
+    <hyperlink ref="A72" r:id="rId143" display="https://www.worldometers.info/coronavirus/country/bolivia/" xr:uid="{8A0C580F-1BD2-4D57-877D-131394BF13DB}"/>
+    <hyperlink ref="A71" r:id="rId144" display="https://www.worldometers.info/coronavirus/country/cameroon/" xr:uid="{69F52941-1A5A-4E6A-8CB5-8B94261DDFF5}"/>
+    <hyperlink ref="A70" r:id="rId145" display="https://www.worldometers.info/coronavirus/country/greece/" xr:uid="{649AAC19-6C42-4FAB-9D13-4A3412BFF972}"/>
+    <hyperlink ref="A69" r:id="rId146" display="https://www.worldometers.info/coronavirus/country/iraq/" xr:uid="{54CF3D39-CB8F-434A-A0DE-F1EB7EFC981F}"/>
+    <hyperlink ref="A68" r:id="rId147" display="https://www.worldometers.info/coronavirus/country/thailand/" xr:uid="{C2536407-653C-4D1B-B90A-935FF61F2576}"/>
+    <hyperlink ref="A67" r:id="rId148" display="https://www.worldometers.info/coronavirus/country/hungary/" xr:uid="{47B17879-DAFD-46C2-B4E3-3FE241A69657}"/>
+    <hyperlink ref="A66" r:id="rId149" display="https://www.worldometers.info/coronavirus/country/armenia/" xr:uid="{F25B6402-2874-40AF-9E72-ABDFB24BAFE8}"/>
+    <hyperlink ref="A65" r:id="rId150" display="https://www.worldometers.info/coronavirus/country/oman/" xr:uid="{41C421D3-D614-45B9-B689-4F2728E13C80}"/>
+    <hyperlink ref="A64" r:id="rId151" display="https://www.worldometers.info/coronavirus/country/luxembourg/" xr:uid="{DAFAD541-09B2-4E00-B689-C8E5A7D476B4}"/>
+    <hyperlink ref="A63" r:id="rId152" display="https://www.worldometers.info/coronavirus/country/nigeria/" xr:uid="{FA572D82-EB6F-41FD-864B-A6AF67418FAD}"/>
+    <hyperlink ref="A62" r:id="rId153" display="https://www.worldometers.info/coronavirus/country/afghanistan/" xr:uid="{D88C8A72-1600-4B4A-9A2D-213D71A25392}"/>
+    <hyperlink ref="A61" r:id="rId154" display="https://www.worldometers.info/coronavirus/country/ghana/" xr:uid="{9CEF4C35-8274-479E-AFE2-A30628B4C26A}"/>
+    <hyperlink ref="A60" r:id="rId155" display="https://www.worldometers.info/coronavirus/country/moldova/" xr:uid="{18523B85-50E5-462C-84EE-F1E8375EB85A}"/>
+    <hyperlink ref="A59" r:id="rId156" display="https://www.worldometers.info/coronavirus/country/bahrain/" xr:uid="{E1B7FE6C-D07A-415D-A62D-B25CB90F83B4}"/>
+    <hyperlink ref="A58" r:id="rId157" display="https://www.worldometers.info/coronavirus/country/kazakhstan/" xr:uid="{14DD9120-EC94-47F8-8CA3-9544AE007A7C}"/>
+    <hyperlink ref="A57" r:id="rId158" display="https://www.worldometers.info/coronavirus/country/algeria/" xr:uid="{91F07E51-A605-44A8-AD97-D11416C71D71}"/>
+    <hyperlink ref="A56" r:id="rId159" display="https://www.worldometers.info/coronavirus/country/finland/" xr:uid="{EE83CDD6-40D0-4125-B1BE-FFF792B516ED}"/>
+    <hyperlink ref="A55" r:id="rId160" display="https://www.worldometers.info/coronavirus/country/argentina/" xr:uid="{627CCFDB-80C1-4B54-8A44-3CF4380A4F5A}"/>
+    <hyperlink ref="A54" r:id="rId161" display="https://www.worldometers.info/coronavirus/country/morocco/" xr:uid="{7DAFF97E-1988-4231-9828-59381AF10585}"/>
+    <hyperlink ref="A53" r:id="rId162" display="https://www.worldometers.info/coronavirus/country/malaysia/" xr:uid="{C5A69B39-CD63-4530-8113-C85689AAF623}"/>
+    <hyperlink ref="A52" r:id="rId163" display="https://www.worldometers.info/coronavirus/country/australia/" xr:uid="{E542A3E1-0056-417E-B4CF-70E3A334DD6C}"/>
+    <hyperlink ref="A51" r:id="rId164" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{90D32F2C-14E4-49AD-9088-073886482029}"/>
+    <hyperlink ref="A50" r:id="rId165" display="https://www.worldometers.info/coronavirus/country/czech-republic/" xr:uid="{F5496395-22CE-4E4E-B36B-43C8976165BE}"/>
+    <hyperlink ref="A49" r:id="rId166" display="https://www.worldometers.info/coronavirus/country/panama/" xr:uid="{AE8D2482-108D-4A71-9E1A-266C0F84A1AD}"/>
+    <hyperlink ref="A48" r:id="rId167" display="https://www.worldometers.info/coronavirus/country/kuwait/" xr:uid="{234F2AB8-C90A-4A4C-BE49-ABC0FCB860C1}"/>
+    <hyperlink ref="A47" r:id="rId168" display="https://www.worldometers.info/coronavirus/country/egypt/" xr:uid="{24D15AD3-C177-4731-B16B-E080441EABCA}"/>
+    <hyperlink ref="A46" r:id="rId169" display="https://www.worldometers.info/coronavirus/country/south-africa/" xr:uid="{6E24997C-D2A6-4908-9DD0-2647BBA59C19}"/>
+    <hyperlink ref="A45" r:id="rId170" display="https://www.worldometers.info/coronavirus/country/serbia/" xr:uid="{F565D3A6-D36A-4BA6-8187-C2B350EF4FF7}"/>
+    <hyperlink ref="A44" r:id="rId171" display="https://www.worldometers.info/coronavirus/country/dominican-republic/" xr:uid="{608FBF9A-0553-4E18-B818-DE636D62A4C6}"/>
+    <hyperlink ref="A43" r:id="rId172" display="https://www.worldometers.info/coronavirus/country/denmark/" xr:uid="{A6E05749-A04D-498B-90FA-9F5D90F9D841}"/>
+    <hyperlink ref="A42" r:id="rId173" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{64543BB9-DB10-42A4-89EB-824B381C4A79}"/>
+    <hyperlink ref="A41" r:id="rId174" display="https://www.worldometers.info/coronavirus/country/colombia/" xr:uid="{56F1D92A-30F0-41FB-B58B-67F8F805A771}"/>
+    <hyperlink ref="A40" r:id="rId175" display="https://www.worldometers.info/coronavirus/country/philippines/" xr:uid="{B25FCC0F-4087-4A6B-A797-5F3F815D0426}"/>
+    <hyperlink ref="A39" r:id="rId176" display="https://www.worldometers.info/coronavirus/country/indonesia/" xr:uid="{A2316774-C157-4146-9A2B-C5FB1BB2AD93}"/>
+    <hyperlink ref="A38" r:id="rId177" display="https://www.worldometers.info/coronavirus/country/romania/" xr:uid="{95465A5E-8CE1-40AF-867E-2DFDD5173476}"/>
+    <hyperlink ref="A37" r:id="rId178" display="https://www.worldometers.info/coronavirus/country/ukraine/" xr:uid="{DBD400B3-316F-4DC5-9512-496FE6DA2259}"/>
+    <hyperlink ref="A36" r:id="rId179" display="https://www.worldometers.info/coronavirus/country/bangladesh/" xr:uid="{268255C3-56FC-4CEF-AE65-609A861232B8}"/>
+    <hyperlink ref="A35" r:id="rId180" display="https://www.worldometers.info/coronavirus/country/japan/" xr:uid="{3B7E29B4-CF92-44DF-9D4E-AD28911348AC}"/>
+    <hyperlink ref="A34" r:id="rId181" display="https://www.worldometers.info/coronavirus/country/austria/" xr:uid="{43EE1039-5FCE-4A09-92E1-A864C251ABE5}"/>
+    <hyperlink ref="A33" r:id="rId182" display="https://www.worldometers.info/coronavirus/country/poland/" xr:uid="{FC4B2E71-07A6-4B75-91F7-A23D68BFDAB4}"/>
+    <hyperlink ref="A32" r:id="rId183" display="https://www.worldometers.info/coronavirus/country/israel/" xr:uid="{5896EA48-283E-4A9B-A099-98DBFA5D7DB2}"/>
+    <hyperlink ref="A31" r:id="rId184" display="https://www.worldometers.info/coronavirus/country/united-arab-emirates/" xr:uid="{FF52320A-171C-486E-94B9-A0606B6EF47F}"/>
+    <hyperlink ref="A30" r:id="rId185" display="https://www.worldometers.info/coronavirus/country/qatar/" xr:uid="{3706DA80-202D-4300-8636-28586B22F039}"/>
+    <hyperlink ref="A29" r:id="rId186" display="https://www.worldometers.info/coronavirus/country/ireland/" xr:uid="{C03B3462-CBE8-49EC-B969-FF92EE421421}"/>
+    <hyperlink ref="A28" r:id="rId187" display="https://www.worldometers.info/coronavirus/country/singapore/" xr:uid="{CE5875CF-BEBD-40A3-88A6-BBC002082E54}"/>
+    <hyperlink ref="A27" r:id="rId188" display="https://www.worldometers.info/coronavirus/country/belarus/" xr:uid="{C5396CAB-8F1D-49D6-B04A-A9E58F05BCEF}"/>
+    <hyperlink ref="A26" r:id="rId189" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{7C12E768-891C-4F94-BA7C-5DBEB9E3D6D7}"/>
+    <hyperlink ref="A25" r:id="rId190" display="https://www.worldometers.info/coronavirus/country/portugal/" xr:uid="{22B85079-2F24-448D-A8EC-D7ABF09C9600}"/>
+    <hyperlink ref="A24" r:id="rId191" display="https://www.worldometers.info/coronavirus/country/chile/" xr:uid="{C331DC6E-5EDA-4932-B9F7-5152EDB32EE1}"/>
+    <hyperlink ref="A23" r:id="rId192" display="https://www.worldometers.info/coronavirus/country/ecuador/" xr:uid="{D16A6DF5-1CAB-4836-A0E5-38A309B501D0}"/>
+    <hyperlink ref="A22" r:id="rId193" display="https://www.worldometers.info/coronavirus/country/switzerland/" xr:uid="{E9793E46-362D-4A74-A1FB-6D5D3EA43B9F}"/>
+    <hyperlink ref="A21" r:id="rId194" display="https://www.worldometers.info/coronavirus/country/pakistan/" xr:uid="{9905E909-35EA-4366-8D7A-B0E93550A39C}"/>
+    <hyperlink ref="A20" r:id="rId195" display="https://www.worldometers.info/coronavirus/country/mexico/" xr:uid="{56C3E58F-FCB9-4513-A089-3233DA5017C9}"/>
+    <hyperlink ref="A19" r:id="rId196" display="https://www.worldometers.info/coronavirus/country/saudi-arabia/" xr:uid="{D6A6E7AE-3C98-459D-B405-A37595228211}"/>
+    <hyperlink ref="A18" r:id="rId197" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{91502D1C-4144-486B-91D5-417DFC82CA07}"/>
+    <hyperlink ref="A17" r:id="rId198" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{C5AFB7CC-A831-4068-BAD1-D121481191AF}"/>
+    <hyperlink ref="A16" r:id="rId199" display="https://www.worldometers.info/coronavirus/country/peru/" xr:uid="{24E6540F-757A-4FC5-A8E0-221836A662B1}"/>
+    <hyperlink ref="A15" r:id="rId200" display="https://www.worldometers.info/coronavirus/country/india/" xr:uid="{9457C3A3-F96A-471B-A553-D9F4C5C5E48B}"/>
+    <hyperlink ref="A14" r:id="rId201" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{E92B5090-9913-47BE-8ECC-22E83F44F2C4}"/>
+    <hyperlink ref="A13" r:id="rId202" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{70BA54BE-40A7-4B00-8C4E-E097574FA46D}"/>
+    <hyperlink ref="A12" r:id="rId203" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{DD6DCF2F-3555-4A21-85D4-D4DC0C80A4D7}"/>
+    <hyperlink ref="A11" r:id="rId204" display="https://www.worldometers.info/coronavirus/country/turkey/" xr:uid="{525EED6D-C2E0-4D03-9EE7-63035BF1F43F}"/>
+    <hyperlink ref="A10" r:id="rId205" display="https://www.worldometers.info/coronavirus/country/brazil/" xr:uid="{5107D39D-1307-481B-BAE1-FBDBC9D50676}"/>
+    <hyperlink ref="A9" r:id="rId206" display="https://www.worldometers.info/coronavirus/country/germany/" xr:uid="{A5E0E082-D8A8-4DED-BE69-3BF9DF7B28F5}"/>
+    <hyperlink ref="A8" r:id="rId207" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{1EE0FF71-7455-44AF-A587-AB480E823C61}"/>
+    <hyperlink ref="A7" r:id="rId208" display="https://www.worldometers.info/coronavirus/country/italy/" xr:uid="{5C33A34A-EB6B-4DF8-96EB-07F92DEA87F1}"/>
+    <hyperlink ref="A6" r:id="rId209" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{A37462C3-DF3E-4642-9B30-746EF334FCCF}"/>
+    <hyperlink ref="A5" r:id="rId210" display="https://www.worldometers.info/coronavirus/country/russia/" xr:uid="{126B866C-7258-41D9-A0EE-775FB8E6298C}"/>
+    <hyperlink ref="A4" r:id="rId211" display="https://www.worldometers.info/coronavirus/country/spain/" xr:uid="{DE14C721-68B6-4E3A-B58E-29E9F1EEFEDA}"/>
+    <hyperlink ref="A3" r:id="rId212" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{829318AE-3AC2-4D8D-8022-210145C2C405}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId213"/>
@@ -8635,7 +8635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{742B145C-AF23-4833-8FFA-B7998F53A877}">
   <dimension ref="A1:O216"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
